--- a/files/InventoryTemplate.xlsx
+++ b/files/InventoryTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulnoowegeducation.sharepoint.com/sites/UlnoowegEducationCenter/Shared Documents/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seyit\OneDrive\Desktop\projects\LNUD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{EF8F95B7-E664-4A71-8E42-1F3E99F5C5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD94F0B3-C220-42C9-8594-08A8BCF883DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0723F9FD-C15B-4503-A6C0-2C8EA9E817BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{380BCBB1-7EA3-42E2-B699-2517D28BAA6C}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="28800" windowHeight="15435" xr2:uid="{380BCBB1-7EA3-42E2-B699-2517D28BAA6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="274">
   <si>
     <t>Product Name</t>
   </si>
@@ -853,6 +853,12 @@
   </si>
   <si>
     <t>VR Headset - 0072</t>
+  </si>
+  <si>
+    <t>Gimble-Test</t>
+  </si>
+  <si>
+    <t>Gimble-Test - 0078</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1053,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,9 +1072,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1106,7 +1112,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1212,7 +1218,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1354,7 +1360,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1362,19 +1368,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C066C2-9CEB-4F9E-87F2-FAE3BDD611B8}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>50</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>50</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>50</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>50</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>50</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>50</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>71</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>73</v>
       </c>
@@ -1814,92 +1820,100 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="4" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1916,19 +1930,19 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1944,7 +1958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +1966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +1982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +1990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1984,7 +1998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -2008,7 +2022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
@@ -2024,7 +2038,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
@@ -2032,7 +2046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2040,7 +2054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -2048,7 +2062,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -2056,7 +2070,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2064,7 +2078,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
@@ -2072,7 +2086,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -2080,7 +2094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>4</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2118,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2134,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>12</v>
       </c>
@@ -2128,7 +2142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
@@ -2144,7 +2158,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2166,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>20</v>
       </c>
@@ -2160,7 +2174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>24</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>26</v>
       </c>
@@ -2184,7 +2198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>28</v>
       </c>
@@ -2192,7 +2206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -2200,7 +2214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2222,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>113</v>
       </c>
@@ -2216,7 +2230,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>113</v>
       </c>
@@ -2224,7 +2238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>116</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>118</v>
       </c>
@@ -2240,7 +2254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
@@ -2248,7 +2262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>120</v>
       </c>
@@ -2256,7 +2270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>120</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>120</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>120</v>
       </c>
@@ -2280,7 +2294,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>120</v>
       </c>
@@ -2288,7 +2302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>127</v>
       </c>
@@ -2296,7 +2310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
@@ -2304,7 +2318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>127</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>127</v>
       </c>
@@ -2320,7 +2334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -2328,7 +2342,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>127</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>127</v>
       </c>
@@ -2344,7 +2358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>127</v>
       </c>
@@ -2352,7 +2366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>127</v>
       </c>
@@ -2360,7 +2374,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>137</v>
       </c>
@@ -2368,7 +2382,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>137</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>141</v>
       </c>
@@ -2387,7 +2401,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>141</v>
       </c>
@@ -2395,7 +2409,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>141</v>
       </c>
@@ -2403,7 +2417,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>141</v>
       </c>
@@ -2411,7 +2425,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>146</v>
       </c>
@@ -2422,7 +2436,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>146</v>
       </c>
@@ -2430,7 +2444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>150</v>
       </c>
@@ -2438,7 +2452,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>150</v>
       </c>
@@ -2446,7 +2460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>150</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>150</v>
       </c>
@@ -2462,7 +2476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>150</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>150</v>
       </c>
@@ -2478,7 +2492,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>150</v>
       </c>
@@ -2486,7 +2500,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>150</v>
       </c>
@@ -2494,7 +2508,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>150</v>
       </c>
@@ -2502,7 +2516,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>160</v>
       </c>
@@ -2510,7 +2524,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>160</v>
       </c>
@@ -2518,7 +2532,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>160</v>
       </c>
@@ -2526,7 +2540,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>160</v>
       </c>
@@ -2534,7 +2548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>160</v>
       </c>
@@ -2542,7 +2556,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>160</v>
       </c>
@@ -2550,7 +2564,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>160</v>
       </c>
@@ -2558,7 +2572,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>160</v>
       </c>
@@ -2566,7 +2580,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>160</v>
       </c>
@@ -2574,7 +2588,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>160</v>
       </c>
@@ -2582,7 +2596,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>160</v>
       </c>
@@ -2590,7 +2604,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>160</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>160</v>
       </c>
@@ -2606,7 +2620,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>174</v>
       </c>
@@ -2614,7 +2628,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>174</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>177</v>
       </c>
@@ -2630,7 +2644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>177</v>
       </c>
@@ -2638,7 +2652,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>50</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>50</v>
       </c>
@@ -2654,7 +2668,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>50</v>
       </c>
@@ -2662,7 +2676,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>50</v>
       </c>
@@ -2670,7 +2684,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>50</v>
       </c>
@@ -2678,7 +2692,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>50</v>
       </c>
@@ -2686,7 +2700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>50</v>
       </c>
@@ -2694,7 +2708,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>50</v>
       </c>
@@ -2702,7 +2716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>50</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>50</v>
       </c>
@@ -2718,7 +2732,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>50</v>
       </c>
@@ -2726,7 +2740,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>50</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>50</v>
       </c>
@@ -2742,7 +2756,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>50</v>
       </c>
@@ -2750,7 +2764,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>50</v>
       </c>
@@ -2758,7 +2772,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>50</v>
       </c>
@@ -2766,7 +2780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>50</v>
       </c>
@@ -2774,7 +2788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>50</v>
       </c>
@@ -2782,7 +2796,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>50</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>50</v>
       </c>
@@ -2798,7 +2812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>71</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>73</v>
       </c>
@@ -2814,7 +2828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>202</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>202</v>
       </c>
@@ -2830,7 +2844,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>202</v>
       </c>
@@ -2838,7 +2852,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>202</v>
       </c>
@@ -2846,7 +2860,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>207</v>
       </c>
@@ -2854,7 +2868,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>209</v>
       </c>
@@ -2862,7 +2876,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>211</v>
       </c>
@@ -2870,7 +2884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>211</v>
       </c>
@@ -2878,7 +2892,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>211</v>
       </c>
@@ -2886,7 +2900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>215</v>
       </c>
@@ -2894,7 +2908,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>217</v>
       </c>
@@ -2902,7 +2916,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>219</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>219</v>
       </c>
@@ -2918,7 +2932,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>222</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>222</v>
       </c>
@@ -2934,7 +2948,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>222</v>
       </c>
@@ -2942,7 +2956,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>222</v>
       </c>
@@ -2950,7 +2964,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>222</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>222</v>
       </c>
@@ -2966,7 +2980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>229</v>
       </c>
@@ -2974,7 +2988,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>229</v>
       </c>
@@ -2982,7 +2996,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>229</v>
       </c>
@@ -2992,7 +3006,7 @@
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
     </row>
-    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>229</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>229</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>229</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>229</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>229</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>229</v>
       </c>
@@ -3040,7 +3054,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>229</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>229</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>229</v>
       </c>
@@ -3064,7 +3078,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>229</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>229</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>229</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>229</v>
       </c>
@@ -3096,7 +3110,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>229</v>
       </c>
@@ -3104,7 +3118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>229</v>
       </c>
@@ -3112,7 +3126,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>229</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>229</v>
       </c>
@@ -3128,7 +3142,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>250</v>
       </c>
@@ -3136,7 +3150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>250</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>250</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>254</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>256</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
     </row>
   </sheetData>
@@ -3445,15 +3459,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e544bf0-e2a0-48cf-8d31-7a7ffcd44117">
@@ -3477,25 +3482,53 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADB7E42-CDD9-4DEE-BE99-A5E222B46A62}"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE8989F-F652-43FD-83B9-46B3A68F3531}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DADB7E42-CDD9-4DEE-BE99-A5E222B46A62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ed12777-3dd9-40f1-bb05-73d3ba4f15d9"/>
+    <ds:schemaRef ds:uri="5e615bf7-ec12-471b-a195-d94bac517825"/>
+    <ds:schemaRef ds:uri="3e544bf0-e2a0-48cf-8d31-7a7ffcd44117"/>
+    <ds:schemaRef ds:uri="2fb3c2e7-1ef9-44cd-9b62-40d433212528"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2153B0F7-30BB-45DD-B3F4-3CBE4F9612A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3ed12777-3dd9-40f1-bb05-73d3ba4f15d9"/>
     <ds:schemaRef ds:uri="5e615bf7-ec12-471b-a195-d94bac517825"/>
+    <ds:schemaRef ds:uri="3e544bf0-e2a0-48cf-8d31-7a7ffcd44117"/>
+    <ds:schemaRef ds:uri="2fb3c2e7-1ef9-44cd-9b62-40d433212528"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE8989F-F652-43FD-83B9-46B3A68F3531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>